--- a/NewArrivals/credData.xlsx
+++ b/NewArrivals/credData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\TestAutomation\NewArrivals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\NewArrivals\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>https://test14.cliotest.com/backoffice/control/main</t>
   </si>
@@ -55,6 +55,21 @@
   </si>
   <si>
     <t>C@bi$ush5</t>
+  </si>
+  <si>
+    <t>CCuser</t>
+  </si>
+  <si>
+    <t>CCURL</t>
+  </si>
+  <si>
+    <t>ehudson</t>
+  </si>
+  <si>
+    <t>CCpass</t>
+  </si>
+  <si>
+    <t>https://test14.cliotest.com/cabicentral/control/main</t>
   </si>
 </sst>
 </file>
@@ -490,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -505,7 +520,7 @@
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -524,8 +539,17 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -543,12 +567,22 @@
       </c>
       <c r="F2" s="3" t="s">
         <v>11</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="G2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/NewArrivals/credData.xlsx
+++ b/NewArrivals/credData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\NewArrivals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation_new\NewArrivals\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>https://test14.cliotest.com/backoffice/control/main</t>
   </si>
@@ -70,6 +70,21 @@
   </si>
   <si>
     <t>https://test14.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>CWURL</t>
+  </si>
+  <si>
+    <t>https://test14.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>rsuarez</t>
+  </si>
+  <si>
+    <t>CWuser</t>
+  </si>
+  <si>
+    <t>CWpass</t>
   </si>
 </sst>
 </file>
@@ -505,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -518,9 +533,10 @@
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="36.140625" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -548,8 +564,17 @@
       <c r="I1" t="s">
         <v>15</v>
       </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,6 +600,15 @@
         <v>14</v>
       </c>
       <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -583,6 +617,7 @@
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
     <hyperlink ref="G2" r:id="rId2"/>
+    <hyperlink ref="J2" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/NewArrivals/credData.xlsx
+++ b/NewArrivals/credData.xlsx
@@ -21,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
-    <t>https://test14.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
     <t>400000002</t>
   </si>
   <si>
@@ -69,15 +66,9 @@
     <t>CCpass</t>
   </si>
   <si>
-    <t>https://test14.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
     <t>CWURL</t>
   </si>
   <si>
-    <t>https://test14.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
     <t>rsuarez</t>
   </si>
   <si>
@@ -85,6 +76,15 @@
   </si>
   <si>
     <t>CWpass</t>
+  </si>
+  <si>
+    <t>https://test17.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test17.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test17.cliotest.com/warehouse/control/main</t>
   </si>
 </sst>
 </file>
@@ -148,11 +148,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -523,7 +524,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -534,82 +535,83 @@
     <col min="4" max="4" width="36.140625" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="31.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
-        <v>20</v>
-      </c>
       <c r="L1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
       <c r="L2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -618,6 +620,7 @@
     <hyperlink ref="F2" r:id="rId1"/>
     <hyperlink ref="G2" r:id="rId2"/>
     <hyperlink ref="J2" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/NewArrivals/credData.xlsx
+++ b/NewArrivals/credData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation_new\NewArrivals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\NewArrivals\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
-    <t>https://test14.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
     <t>400000002</t>
   </si>
   <si>
@@ -69,15 +66,9 @@
     <t>CCpass</t>
   </si>
   <si>
-    <t>https://test14.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
     <t>CWURL</t>
   </si>
   <si>
-    <t>https://test14.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
     <t>rsuarez</t>
   </si>
   <si>
@@ -85,6 +76,15 @@
   </si>
   <si>
     <t>CWpass</t>
+  </si>
+  <si>
+    <t>https://test17.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test17.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test17.cliotest.com/warehouse/control/main</t>
   </si>
 </sst>
 </file>
@@ -148,11 +148,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel Built-in Normal" xfId="1"/>
@@ -522,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -538,86 +539,87 @@
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
       <c r="G1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
-        <v>20</v>
-      </c>
       <c r="L1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
       <c r="L2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="G2" r:id="rId2"/>
-    <hyperlink ref="J2" r:id="rId3"/>
+    <hyperlink ref="G2" r:id="rId2" display="https://test14.cliotest.com/cabicentral/control/main"/>
+    <hyperlink ref="J2" r:id="rId3" display="https://test14.cliotest.com/warehouse/control/main"/>
+    <hyperlink ref="A2" r:id="rId4" display="https://test14.cliotest.com/backoffice/control/main"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/NewArrivals/credData.xlsx
+++ b/NewArrivals/credData.xlsx
@@ -78,13 +78,13 @@
     <t>CWpass</t>
   </si>
   <si>
-    <t>https://test17.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test17.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test17.cliotest.com/warehouse/control/main</t>
+    <t>https://test14.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test14.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test14.cliotest.com/warehouse/control/main</t>
   </si>
 </sst>
 </file>
@@ -523,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -617,9 +617,9 @@
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="G2" r:id="rId2" display="https://test14.cliotest.com/cabicentral/control/main"/>
-    <hyperlink ref="J2" r:id="rId3" display="https://test14.cliotest.com/warehouse/control/main"/>
-    <hyperlink ref="A2" r:id="rId4" display="https://test14.cliotest.com/backoffice/control/main"/>
+    <hyperlink ref="G2" r:id="rId2"/>
+    <hyperlink ref="J2" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/NewArrivals/credData.xlsx
+++ b/NewArrivals/credData.xlsx
@@ -78,13 +78,13 @@
     <t>CWpass</t>
   </si>
   <si>
-    <t>https://test14.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test14.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test14.cliotest.com/warehouse/control/main</t>
+    <t>https://test17.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test17.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test17.cliotest.com/warehouse/control/main</t>
   </si>
 </sst>
 </file>

--- a/NewArrivals/credData.xlsx
+++ b/NewArrivals/credData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>400000002</t>
   </si>
@@ -48,12 +48,6 @@
     <t>BOpass</t>
   </si>
   <si>
-    <t>sshinde</t>
-  </si>
-  <si>
-    <t>C@bi$ush5</t>
-  </si>
-  <si>
     <t>CCuser</t>
   </si>
   <si>
@@ -85,6 +79,9 @@
   </si>
   <si>
     <t>https://test17.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>abcd</t>
   </si>
 </sst>
 </file>
@@ -524,7 +521,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -557,27 +554,27 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
       <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" t="s">
-        <v>17</v>
-      </c>
       <c r="L1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -589,25 +586,25 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1234</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I2" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L2" t="s">
         <v>1</v>
@@ -616,7 +613,7 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId1" display="C@bi$ush5"/>
     <hyperlink ref="G2" r:id="rId2"/>
     <hyperlink ref="J2" r:id="rId3"/>
     <hyperlink ref="A2" r:id="rId4"/>

--- a/NewArrivals/credData.xlsx
+++ b/NewArrivals/credData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>400000002</t>
   </si>
@@ -72,16 +72,19 @@
     <t>CWpass</t>
   </si>
   <si>
-    <t>https://test17.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test17.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test17.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>abcd</t>
+    <t>https://test14.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test14.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test14.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>sshinde</t>
+  </si>
+  <si>
+    <t>C@bi$ush5</t>
   </si>
 </sst>
 </file>
@@ -520,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -588,8 +591,8 @@
       <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="3">
-        <v>1234</v>
+      <c r="F2" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>18</v>
@@ -613,10 +616,10 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="C@bi$ush5"/>
-    <hyperlink ref="G2" r:id="rId2"/>
-    <hyperlink ref="J2" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="G2" r:id="rId2" display="https://test17.cliotest.com/cabicentral/control/main"/>
+    <hyperlink ref="J2" r:id="rId3" display="https://test17.cliotest.com/warehouse/control/main"/>
+    <hyperlink ref="A2" r:id="rId4" display="https://test17.cliotest.com/backoffice/control/main"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/NewArrivals/credData.xlsx
+++ b/NewArrivals/credData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\NewArrivals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation_new\NewArrivals\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>400000002</t>
   </si>
@@ -72,9 +72,6 @@
     <t>CWpass</t>
   </si>
   <si>
-    <t>https://test14.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
     <t>https://test14.cliotest.com/cabicentral/control/main</t>
   </si>
   <si>
@@ -85,6 +82,24 @@
   </si>
   <si>
     <t>C@bi$ush5</t>
+  </si>
+  <si>
+    <t>https://test1.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>RSURL</t>
+  </si>
+  <si>
+    <t>https://mirandakate.cabitest.com/</t>
+  </si>
+  <si>
+    <t>michigan@na.com</t>
+  </si>
+  <si>
+    <t>RSuser</t>
+  </si>
+  <si>
+    <t>RSpass</t>
   </si>
 </sst>
 </file>
@@ -521,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -537,7 +552,7 @@
     <col min="7" max="7" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -574,10 +589,19 @@
       <c r="L1" t="s">
         <v>16</v>
       </c>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -589,13 +613,13 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -604,12 +628,21 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
       </c>
       <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -619,7 +652,9 @@
     <hyperlink ref="F2" r:id="rId1"/>
     <hyperlink ref="G2" r:id="rId2" display="https://test17.cliotest.com/cabicentral/control/main"/>
     <hyperlink ref="J2" r:id="rId3" display="https://test17.cliotest.com/warehouse/control/main"/>
-    <hyperlink ref="A2" r:id="rId4" display="https://test17.cliotest.com/backoffice/control/main"/>
+    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="M2" r:id="rId5"/>
+    <hyperlink ref="N2" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/NewArrivals/credData.xlsx
+++ b/NewArrivals/credData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
   <si>
     <t>400000002</t>
   </si>
@@ -85,6 +85,21 @@
   </si>
   <si>
     <t>C@bi$ush5</t>
+  </si>
+  <si>
+    <t>RSURL</t>
+  </si>
+  <si>
+    <t>RSuser</t>
+  </si>
+  <si>
+    <t>RSpass</t>
+  </si>
+  <si>
+    <t>https://mirandakate.cabitest.com/</t>
+  </si>
+  <si>
+    <t>michigan@na.com</t>
   </si>
 </sst>
 </file>
@@ -521,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -537,7 +552,7 @@
     <col min="7" max="7" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -574,8 +589,17 @@
       <c r="L1" t="s">
         <v>16</v>
       </c>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>17</v>
       </c>
@@ -610,6 +634,15 @@
         <v>14</v>
       </c>
       <c r="L2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
         <v>1</v>
       </c>
     </row>

--- a/NewArrivals/credData.xlsx
+++ b/NewArrivals/credData.xlsx
@@ -72,15 +72,6 @@
     <t>CWpass</t>
   </si>
   <si>
-    <t>https://test14.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test14.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test14.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
     <t>sshinde</t>
   </si>
   <si>
@@ -96,10 +87,19 @@
     <t>RSpass</t>
   </si>
   <si>
-    <t>https://mirandakate.cabitest.com/</t>
-  </si>
-  <si>
     <t>michigan@na.com</t>
+  </si>
+  <si>
+    <t>https://test17.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test17.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test17.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>https://mirandakate.cabitest3.com/</t>
   </si>
 </sst>
 </file>
@@ -538,9 +538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:O2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -550,6 +548,8 @@
     <col min="4" max="4" width="36.140625" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="7" max="7" width="31.7109375" customWidth="1"/>
+    <col min="13" max="13" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
@@ -590,18 +590,18 @@
         <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="O1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -613,13 +613,13 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -628,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -636,11 +636,11 @@
       <c r="L2" t="s">
         <v>1</v>
       </c>
-      <c r="M2" t="s">
-        <v>25</v>
+      <c r="M2" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="O2" t="s">
         <v>1</v>
@@ -650,12 +650,13 @@
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="G2" r:id="rId2" display="https://test17.cliotest.com/cabicentral/control/main"/>
-    <hyperlink ref="J2" r:id="rId3" display="https://test17.cliotest.com/warehouse/control/main"/>
-    <hyperlink ref="A2" r:id="rId4" display="https://test17.cliotest.com/backoffice/control/main"/>
+    <hyperlink ref="G2" r:id="rId2"/>
+    <hyperlink ref="J2" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="M2" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/NewArrivals/credData.xlsx
+++ b/NewArrivals/credData.xlsx
@@ -84,15 +84,9 @@
     <t>C@bi$ush5</t>
   </si>
   <si>
-    <t>https://test1.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
     <t>RSURL</t>
   </si>
   <si>
-    <t>https://mirandakate.cabitest.com/</t>
-  </si>
-  <si>
     <t>michigan@na.com</t>
   </si>
   <si>
@@ -100,6 +94,12 @@
   </si>
   <si>
     <t>RSpass</t>
+  </si>
+  <si>
+    <t>https://test3.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://mirandakate.cabitest3.com/</t>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -590,18 +590,18 @@
         <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="O1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -637,10 +637,10 @@
         <v>1</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="O2" t="s">
         <v>1</v>

--- a/NewArrivals/credData.xlsx
+++ b/NewArrivals/credData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation_new\NewArrivals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\NewArrivals\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -99,7 +99,7 @@
     <t>https://test3.cliotest.com/backoffice/control/main</t>
   </si>
   <si>
-    <t>https://mirandakate.cabitest3.com/</t>
+    <t>https://mirandakate.cabitest3.com</t>
   </si>
 </sst>
 </file>
@@ -538,7 +538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -549,7 +549,7 @@
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
     <col min="4" max="4" width="36.140625" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="7" max="7" width="31.7109375" customWidth="1"/>
+    <col min="7" max="7" width="48.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">

--- a/NewArrivals/credData.xlsx
+++ b/NewArrivals/credData.xlsx
@@ -72,12 +72,6 @@
     <t>CWpass</t>
   </si>
   <si>
-    <t>https://test14.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test14.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
     <t>sshinde</t>
   </si>
   <si>
@@ -96,10 +90,16 @@
     <t>RSpass</t>
   </si>
   <si>
-    <t>https://test3.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://mirandakate.cabitest3.com</t>
+    <t>https://mirandakate.cabitest4.com</t>
+  </si>
+  <si>
+    <t>https://test4.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test4.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>https://test4.cliotest.com/backoffice/control/main</t>
   </si>
 </sst>
 </file>
@@ -538,7 +538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -590,18 +590,18 @@
         <v>16</v>
       </c>
       <c r="M1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" t="s">
-        <v>23</v>
-      </c>
       <c r="O1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -613,13 +613,13 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -628,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -637,10 +637,10 @@
         <v>1</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="O2" t="s">
         <v>1</v>
@@ -652,7 +652,7 @@
     <hyperlink ref="F2" r:id="rId1"/>
     <hyperlink ref="G2" r:id="rId2" display="https://test17.cliotest.com/cabicentral/control/main"/>
     <hyperlink ref="J2" r:id="rId3" display="https://test17.cliotest.com/warehouse/control/main"/>
-    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="A2" r:id="rId4" display="https://test3.cliotest.com/backoffice/control/main"/>
     <hyperlink ref="M2" r:id="rId5"/>
     <hyperlink ref="N2" r:id="rId6"/>
   </hyperlinks>

--- a/NewArrivals/credData.xlsx
+++ b/NewArrivals/credData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\NewArrivals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation_new\NewArrivals\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -72,9 +72,6 @@
     <t>CWpass</t>
   </si>
   <si>
-    <t>https://test14.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
     <t>https://test14.cliotest.com/warehouse/control/main</t>
   </si>
   <si>
@@ -99,7 +96,10 @@
     <t>https://test3.cliotest.com/backoffice/control/main</t>
   </si>
   <si>
-    <t>https://mirandakate.cabitest3.com</t>
+    <t>https://mirandakate.cabitest4.com</t>
+  </si>
+  <si>
+    <t>https://test4.cliotest.com/cabicentral/control/main</t>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -590,18 +590,18 @@
         <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
         <v>23</v>
-      </c>
-      <c r="O1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -613,13 +613,13 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -628,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -637,10 +637,10 @@
         <v>1</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O2" t="s">
         <v>1</v>
@@ -650,7 +650,7 @@
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="G2" r:id="rId2" display="https://test17.cliotest.com/cabicentral/control/main"/>
+    <hyperlink ref="G2" r:id="rId2"/>
     <hyperlink ref="J2" r:id="rId3" display="https://test17.cliotest.com/warehouse/control/main"/>
     <hyperlink ref="A2" r:id="rId4"/>
     <hyperlink ref="M2" r:id="rId5"/>

--- a/NewArrivals/credData.xlsx
+++ b/NewArrivals/credData.xlsx
@@ -72,9 +72,6 @@
     <t>CWpass</t>
   </si>
   <si>
-    <t>https://test14.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
     <t>sshinde</t>
   </si>
   <si>
@@ -96,10 +93,13 @@
     <t>https://test3.cliotest.com/backoffice/control/main</t>
   </si>
   <si>
-    <t>https://mirandakate.cabitest4.com</t>
-  </si>
-  <si>
-    <t>https://test4.cliotest.com/cabicentral/control/main</t>
+    <t>https://test3.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://mirandakate.cabitest3.com</t>
+  </si>
+  <si>
+    <t>https://test3.cliotest.com/warehouse/control/main</t>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -590,18 +590,18 @@
         <v>16</v>
       </c>
       <c r="M1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" t="s">
         <v>22</v>
-      </c>
-      <c r="O1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -613,13 +613,13 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>19</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -628,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -640,7 +640,7 @@
         <v>25</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O2" t="s">
         <v>1</v>
@@ -651,7 +651,7 @@
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
     <hyperlink ref="G2" r:id="rId2"/>
-    <hyperlink ref="J2" r:id="rId3" display="https://test17.cliotest.com/warehouse/control/main"/>
+    <hyperlink ref="J2" r:id="rId3"/>
     <hyperlink ref="A2" r:id="rId4"/>
     <hyperlink ref="M2" r:id="rId5"/>
     <hyperlink ref="N2" r:id="rId6"/>

--- a/NewArrivals/credData.xlsx
+++ b/NewArrivals/credData.xlsx
@@ -90,16 +90,16 @@
     <t>RSpass</t>
   </si>
   <si>
-    <t>https://mirandakate.cabitest4.com</t>
-  </si>
-  <si>
-    <t>https://test4.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test4.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>https://test4.cliotest.com/backoffice/control/main</t>
+    <t>https://test3.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test3.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test3.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>https://mirandakate.cabitest3.com</t>
   </si>
 </sst>
 </file>
@@ -538,7 +538,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
       <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
@@ -601,7 +601,7 @@
     </row>
     <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -637,7 +637,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>20</v>
@@ -652,7 +652,7 @@
     <hyperlink ref="F2" r:id="rId1"/>
     <hyperlink ref="G2" r:id="rId2" display="https://test17.cliotest.com/cabicentral/control/main"/>
     <hyperlink ref="J2" r:id="rId3" display="https://test17.cliotest.com/warehouse/control/main"/>
-    <hyperlink ref="A2" r:id="rId4" display="https://test3.cliotest.com/backoffice/control/main"/>
+    <hyperlink ref="A2" r:id="rId4" display="https://test4.cliotest.com/backoffice/control/main"/>
     <hyperlink ref="M2" r:id="rId5"/>
     <hyperlink ref="N2" r:id="rId6"/>
   </hyperlinks>

--- a/NewArrivals/credData.xlsx
+++ b/NewArrivals/credData.xlsx
@@ -90,16 +90,16 @@
     <t>RSpass</t>
   </si>
   <si>
-    <t>https://test3.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test3.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test3.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>https://mirandakate.cabitest3.com</t>
+    <t>https://test18.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test18.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test18.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>https://mirandakate.cabitest18.com</t>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -653,7 +653,7 @@
     <hyperlink ref="G2" r:id="rId2" display="https://test17.cliotest.com/cabicentral/control/main"/>
     <hyperlink ref="J2" r:id="rId3" display="https://test17.cliotest.com/warehouse/control/main"/>
     <hyperlink ref="A2" r:id="rId4" display="https://test4.cliotest.com/backoffice/control/main"/>
-    <hyperlink ref="M2" r:id="rId5"/>
+    <hyperlink ref="M2" r:id="rId5" display="https://mirandakate.cabitest3.com"/>
     <hyperlink ref="N2" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/NewArrivals/credData.xlsx
+++ b/NewArrivals/credData.xlsx
@@ -90,16 +90,16 @@
     <t>RSpass</t>
   </si>
   <si>
-    <t>https://test18.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test18.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test18.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>https://mirandakate.cabitest18.com</t>
+    <t>https://test19.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test19.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test19.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>https://mirandakate.cabitest19.com</t>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -653,7 +653,7 @@
     <hyperlink ref="G2" r:id="rId2" display="https://test17.cliotest.com/cabicentral/control/main"/>
     <hyperlink ref="J2" r:id="rId3" display="https://test17.cliotest.com/warehouse/control/main"/>
     <hyperlink ref="A2" r:id="rId4" display="https://test4.cliotest.com/backoffice/control/main"/>
-    <hyperlink ref="M2" r:id="rId5" display="https://mirandakate.cabitest3.com"/>
+    <hyperlink ref="M2" r:id="rId5"/>
     <hyperlink ref="N2" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/NewArrivals/credData.xlsx
+++ b/NewArrivals/credData.xlsx
@@ -90,16 +90,16 @@
     <t>RSpass</t>
   </si>
   <si>
-    <t>https://test19.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test19.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test19.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>https://mirandakate.cabitest19.com</t>
+    <t>https://test21.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test21.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test21.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>https://mirandakate.cabitest21.com</t>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -651,9 +651,9 @@
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
     <hyperlink ref="G2" r:id="rId2" display="https://test17.cliotest.com/cabicentral/control/main"/>
-    <hyperlink ref="J2" r:id="rId3" display="https://test17.cliotest.com/warehouse/control/main"/>
+    <hyperlink ref="J2" r:id="rId3" display="https://test19.cliotest.com/warehouse/control/main"/>
     <hyperlink ref="A2" r:id="rId4" display="https://test4.cliotest.com/backoffice/control/main"/>
-    <hyperlink ref="M2" r:id="rId5"/>
+    <hyperlink ref="M2" r:id="rId5" display="https://mirandakate.cabitest19.com"/>
     <hyperlink ref="N2" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/NewArrivals/credData.xlsx
+++ b/NewArrivals/credData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation\NewArrivals\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\testautomation_new\NewArrivals\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -72,12 +72,6 @@
     <t>CWpass</t>
   </si>
   <si>
-    <t>sshinde</t>
-  </si>
-  <si>
-    <t>C@bi$ush5</t>
-  </si>
-  <si>
     <t>RSURL</t>
   </si>
   <si>
@@ -100,6 +94,12 @@
   </si>
   <si>
     <t>https://mirandakate.cabitest21.com</t>
+  </si>
+  <si>
+    <t>automation</t>
+  </si>
+  <si>
+    <t>cabiautomation</t>
   </si>
 </sst>
 </file>
@@ -538,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -590,18 +590,18 @@
         <v>16</v>
       </c>
       <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" t="s">
-        <v>21</v>
-      </c>
       <c r="O1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -613,13 +613,13 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -628,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -637,10 +637,10 @@
         <v>1</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O2" t="s">
         <v>1</v>
@@ -649,7 +649,7 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId1" display="C@bi$ush5"/>
     <hyperlink ref="G2" r:id="rId2" display="https://test17.cliotest.com/cabicentral/control/main"/>
     <hyperlink ref="J2" r:id="rId3" display="https://test19.cliotest.com/warehouse/control/main"/>
     <hyperlink ref="A2" r:id="rId4" display="https://test4.cliotest.com/backoffice/control/main"/>

--- a/NewArrivals/credData.xlsx
+++ b/NewArrivals/credData.xlsx
@@ -90,16 +90,16 @@
     <t>RSpass</t>
   </si>
   <si>
-    <t>https://test21.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test21.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test21.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>https://mirandakate.cabitest21.com</t>
+    <t>https://test19.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test19.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test19.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>https://mirandakate.cabitest19.com</t>
   </si>
 </sst>
 </file>
@@ -651,9 +651,9 @@
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
     <hyperlink ref="G2" r:id="rId2" display="https://test17.cliotest.com/cabicentral/control/main"/>
-    <hyperlink ref="J2" r:id="rId3" display="https://test19.cliotest.com/warehouse/control/main"/>
+    <hyperlink ref="J2" r:id="rId3"/>
     <hyperlink ref="A2" r:id="rId4" display="https://test4.cliotest.com/backoffice/control/main"/>
-    <hyperlink ref="M2" r:id="rId5" display="https://mirandakate.cabitest19.com"/>
+    <hyperlink ref="M2" r:id="rId5"/>
     <hyperlink ref="N2" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/NewArrivals/credData.xlsx
+++ b/NewArrivals/credData.xlsx
@@ -90,16 +90,16 @@
     <t>RSpass</t>
   </si>
   <si>
-    <t>https://test19.cliotest.com/backoffice/control/main</t>
-  </si>
-  <si>
-    <t>https://test19.cliotest.com/cabicentral/control/main</t>
-  </si>
-  <si>
-    <t>https://test19.cliotest.com/warehouse/control/main</t>
-  </si>
-  <si>
-    <t>https://mirandakate.cabitest19.com</t>
+    <t>https://test21.cliotest.com/backoffice/control/main</t>
+  </si>
+  <si>
+    <t>https://test21.cliotest.com/cabicentral/control/main</t>
+  </si>
+  <si>
+    <t>https://test21.cliotest.com/warehouse/control/main</t>
+  </si>
+  <si>
+    <t>https://mirandakate.cabitest21.com</t>
   </si>
 </sst>
 </file>
@@ -539,7 +539,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -651,9 +651,9 @@
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
     <hyperlink ref="G2" r:id="rId2" display="https://test17.cliotest.com/cabicentral/control/main"/>
-    <hyperlink ref="J2" r:id="rId3"/>
+    <hyperlink ref="J2" r:id="rId3" display="https://test19.cliotest.com/warehouse/control/main"/>
     <hyperlink ref="A2" r:id="rId4" display="https://test4.cliotest.com/backoffice/control/main"/>
-    <hyperlink ref="M2" r:id="rId5"/>
+    <hyperlink ref="M2" r:id="rId5" display="https://mirandakate.cabitest19.com"/>
     <hyperlink ref="N2" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/NewArrivals/credData.xlsx
+++ b/NewArrivals/credData.xlsx
@@ -72,12 +72,6 @@
     <t>CWpass</t>
   </si>
   <si>
-    <t>sshinde</t>
-  </si>
-  <si>
-    <t>C@bi$ush5</t>
-  </si>
-  <si>
     <t>RSURL</t>
   </si>
   <si>
@@ -100,6 +94,12 @@
   </si>
   <si>
     <t>https://mirandakate.cabitest21.com</t>
+  </si>
+  <si>
+    <t>automation</t>
+  </si>
+  <si>
+    <t>cabiautomation</t>
   </si>
 </sst>
 </file>
@@ -538,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -590,18 +590,18 @@
         <v>16</v>
       </c>
       <c r="M1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" t="s">
         <v>19</v>
       </c>
-      <c r="N1" t="s">
-        <v>21</v>
-      </c>
       <c r="O1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -613,13 +613,13 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
@@ -628,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -637,10 +637,10 @@
         <v>1</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="O2" t="s">
         <v>1</v>
@@ -649,7 +649,7 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId1" display="C@bi$ush5"/>
     <hyperlink ref="G2" r:id="rId2" display="https://test17.cliotest.com/cabicentral/control/main"/>
     <hyperlink ref="J2" r:id="rId3" display="https://test19.cliotest.com/warehouse/control/main"/>
     <hyperlink ref="A2" r:id="rId4" display="https://test4.cliotest.com/backoffice/control/main"/>

--- a/NewArrivals/credData.xlsx
+++ b/NewArrivals/credData.xlsx
@@ -93,13 +93,13 @@
     <t>https://test21.cliotest.com/warehouse/control/main</t>
   </si>
   <si>
-    <t>https://mirandakate.cabitest21.com</t>
-  </si>
-  <si>
     <t>automation</t>
   </si>
   <si>
     <t>cabiautomation</t>
+  </si>
+  <si>
+    <t>https://mirandakate.cabitest5.com</t>
   </si>
 </sst>
 </file>
@@ -538,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -613,10 +613,10 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>22</v>
@@ -637,7 +637,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>18</v>
@@ -653,7 +653,7 @@
     <hyperlink ref="G2" r:id="rId2" display="https://test17.cliotest.com/cabicentral/control/main"/>
     <hyperlink ref="J2" r:id="rId3" display="https://test19.cliotest.com/warehouse/control/main"/>
     <hyperlink ref="A2" r:id="rId4" display="https://test4.cliotest.com/backoffice/control/main"/>
-    <hyperlink ref="M2" r:id="rId5" display="https://mirandakate.cabitest19.com"/>
+    <hyperlink ref="M2" r:id="rId5"/>
     <hyperlink ref="N2" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
